--- a/Chapter 8/cities_florida.xlsx
+++ b/Chapter 8/cities_florida.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pablo_ou21ba0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{8B877613-F254-4F54-8C9F-ADB2262E6868}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C26E675-D7E9-4E34-B882-D2344E9EB5D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{78A189A2-F7F7-4D64-8BBB-68B569BAA787}"/>
+    <workbookView xWindow="28680" yWindow="555" windowWidth="29040" windowHeight="16440" xr2:uid="{78A189A2-F7F7-4D64-8BBB-68B569BAA787}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -1071,7 +1071,7 @@
   <dimension ref="A1:F57"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1097,10 +1097,10 @@
         <v>55</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -2188,11 +2188,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D1" xr:uid="{0159BE73-1FAA-412A-9EE7-C3B27C03DDBE}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D57">
-      <sortCondition ref="B1"/>
-    </sortState>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>